--- a/PBI RACI.xlsx
+++ b/PBI RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trpjf34\Documents\BI Strategy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534BEDB-41D3-4AF5-B888-EF4883535DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757ABC34-7BD4-4BE5-BA4D-C60DC83F04F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="23160" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RACI Platform Ownership" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,24 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'RACI Platform Ownership'!$A$1:$X$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="62">
   <si>
     <t>Platform Core Team</t>
   </si>
@@ -291,6 +303,15 @@
   </si>
   <si>
     <t>Engineering</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>•Audit Info Identified per product
+•Information Protection policies
+•Sensitive data labels for DLP
+•Review Non confidential Information</t>
   </si>
 </sst>
 </file>
@@ -816,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1053,44 +1074,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1665,53 +1689,53 @@
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
     <col min="3" max="3" width="37" style="65" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="61" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="62" customWidth="1"/>
-    <col min="13" max="23" width="9.140625" style="61" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="61" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" style="61" customWidth="1"/>
+    <col min="7" max="12" width="9.109375" style="62" customWidth="1"/>
+    <col min="13" max="23" width="9.109375" style="61" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
       <c r="V1" s="66"/>
       <c r="W1"/>
       <c r="X1"/>
     </row>
-    <row r="2" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1737,7 +1761,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1763,7 +1787,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
@@ -1789,7 +1813,7 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="10"/>
       <c r="C5" s="7"/>
@@ -1815,41 +1839,41 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="91"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="90"/>
       <c r="V6" s="67"/>
-      <c r="W6" s="89" t="s">
+      <c r="W6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="92"/>
+      <c r="X6" s="91"/>
     </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="92" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -1909,11 +1933,11 @@
       <c r="W7" s="14"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="23" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="23" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="80" t="s">
         <v>3</v>
@@ -1986,42 +2010,42 @@
       <c r="D9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="82" t="s">
+      <c r="H9" s="95"/>
+      <c r="I9" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="82" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="82" t="s">
+      <c r="L9" s="95"/>
+      <c r="M9" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="82" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="82" t="s">
+      <c r="P9" s="95"/>
+      <c r="Q9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="83"/>
-      <c r="S9" s="82" t="s">
+      <c r="R9" s="95"/>
+      <c r="S9" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="82" t="s">
+      <c r="T9" s="95"/>
+      <c r="U9" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="95"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="78" t="s">
         <v>23</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2103,7 +2127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>15</v>
       </c>
@@ -2177,7 +2201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
@@ -2251,7 +2275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
@@ -2321,7 +2345,7 @@
       <c r="W13" s="68"/>
       <c r="X13" s="69"/>
     </row>
-    <row r="14" spans="1:24" s="36" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="36" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
@@ -2393,11 +2417,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+    <row r="15" spans="1:24" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -2467,9 +2491,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
+    <row r="16" spans="1:24" ht="63.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="84"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="34" t="s">
         <v>51</v>
       </c>
@@ -2823,33 +2847,81 @@
       </c>
       <c r="X20" s="52"/>
     </row>
-    <row r="21" spans="1:24" s="55" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+    <row r="21" spans="1:24" s="55" customFormat="1" ht="64.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="48" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" s="55" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="55" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
@@ -2875,7 +2947,7 @@
       <c r="W22" s="54"/>
       <c r="X22" s="54"/>
     </row>
-    <row r="23" spans="1:24" s="55" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="55" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="56"/>
       <c r="C23" s="57"/>
@@ -2901,7 +2973,7 @@
       <c r="W23" s="54"/>
       <c r="X23" s="54"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="60"/>
@@ -2937,7 +3009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2950,7 +3022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2958,12 +3030,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3081,15 +3150,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14055F2-2DA4-4CE4-B663-621EB722929A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D0B2DD-FEEB-406F-8811-97BC3A030CE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3099,6 +3173,7 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3111,16 +3186,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D0B2DD-FEEB-406F-8811-97BC3A030CE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F14055F2-2DA4-4CE4-B663-621EB722929A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>